--- a/Data/Processed/Angiosperms/missing_powo_ipni/Oxalidaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Oxalidaceae.xlsx
@@ -542,7 +542,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -630,7 +630,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -2313,7 +2313,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -9506,7 +9506,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t xml:space="preserve">Notizbl. Bot. Gart. Berlin-Dahlem 7: 313. 1919 </t>
+          <t>Notizbl. Bot. Gart. Berlin-Dahlem 7: 313. 1919</t>
         </is>
       </c>
       <c r="J164" t="b">
@@ -9574,7 +9574,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -9584,7 +9584,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t xml:space="preserve">Repert. Spec. Nov. Regni Veg. 23: 138. 1926 </t>
+          <t>Repert. Spec. Nov. Regni Veg. 23: 138. 1926</t>
         </is>
       </c>
       <c r="J165" t="b">
@@ -9652,7 +9652,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -9662,7 +9662,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Herb. Boissier ser. 2, 5: 231. 1905 </t>
+          <t>Bull. Herb. Boissier ser. 2, 5: 231. 1905</t>
         </is>
       </c>
       <c r="J166" t="b">
@@ -9730,7 +9730,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -9808,7 +9808,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -9818,7 +9818,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t xml:space="preserve">Repert. Spec. Nov. Regni Veg. 12: 36. 1913 </t>
+          <t>Repert. Spec. Nov. Regni Veg. 12: 36. 1913</t>
         </is>
       </c>
       <c r="J168" t="b">
@@ -9886,7 +9886,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -9896,7 +9896,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t xml:space="preserve">Notizbl. Bot. Gart. Berlin-Dahlem 8: 425. 1923 </t>
+          <t>Notizbl. Bot. Gart. Berlin-Dahlem 8: 425. 1923</t>
         </is>
       </c>
       <c r="J169" t="b">
@@ -9964,7 +9964,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -9974,7 +9974,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t xml:space="preserve">Notizbl. Bot. Gart. Berlin-Dahlem 7: 289. 1919 </t>
+          <t>Notizbl. Bot. Gart. Berlin-Dahlem 7: 289. 1919</t>
         </is>
       </c>
       <c r="J170" t="b">
@@ -10042,7 +10042,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -10052,7 +10052,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bih. Kongl. Svenska Vetensk.-Akad. Handl. 22, Afd. 3, No. 10: 9, pl. 1. 1896 </t>
+          <t>Bih. Kongl. Svenska Vetensk.-Akad. Handl. 22, Afd. 3, No. 10: 9, pl. 1. 1896</t>
         </is>
       </c>
       <c r="J171" t="b">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -10130,7 +10130,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hooker's Icon. Pl. 13: 21, t. 1226. 1877 </t>
+          <t>Hooker's Icon. Pl. 13: 21, t. 1226. 1877</t>
         </is>
       </c>
       <c r="J172" t="b">
@@ -10198,7 +10198,7 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -10208,7 +10208,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t xml:space="preserve">Repert. Spec. Nov. Regni Veg. 48: 2. 1940 </t>
+          <t>Repert. Spec. Nov. Regni Veg. 48: 2. 1940</t>
         </is>
       </c>
       <c r="J173" t="b">
@@ -10276,7 +10276,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -10286,7 +10286,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t xml:space="preserve">Notizbl. Bot. Gart. Berlin-Dahlem 7: 294. 1919 </t>
+          <t>Notizbl. Bot. Gart. Berlin-Dahlem 7: 294. 1919</t>
         </is>
       </c>
       <c r="J174" t="b">
@@ -10354,7 +10354,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -10364,7 +10364,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pflanzenr. (Engler) [Heft 95] 4, Fam. 130: 51. 1930 </t>
+          <t>Pflanzenr. (Engler) [Heft 95] 4, Fam. 130: 51. 1930</t>
         </is>
       </c>
       <c r="J175" t="b">
@@ -10432,7 +10432,7 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -10442,7 +10442,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ark. Bot. 20A, no. 4: 15, pl. 2, fig. 3. 1926 </t>
+          <t>Ark. Bot. 20A, no. 4: 15, pl. 2, fig. 3. 1926</t>
         </is>
       </c>
       <c r="J176" t="b">
@@ -10510,7 +10510,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -10520,7 +10520,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t xml:space="preserve">Notizbl. Bot. Gart. Berlin-Dahlem 7: 293. 1919 </t>
+          <t>Notizbl. Bot. Gart. Berlin-Dahlem 7: 293. 1919</t>
         </is>
       </c>
       <c r="J177" t="b">
@@ -10588,7 +10588,7 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -10598,7 +10598,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t xml:space="preserve">Notizbl. Bot. Gart. Berlin-Dahlem 7: 310. 1919 </t>
+          <t>Notizbl. Bot. Gart. Berlin-Dahlem 7: 310. 1919</t>
         </is>
       </c>
       <c r="J178" t="b">
@@ -10666,7 +10666,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -10676,7 +10676,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t xml:space="preserve">Repert. Spec. Nov. Regni Veg. 38: 196. 1935 </t>
+          <t>Repert. Spec. Nov. Regni Veg. 38: 196. 1935</t>
         </is>
       </c>
       <c r="J179" t="b">
